--- a/Datos/Anuario2024/110102_LiquidacionPresupuestoMunicipal.xlsx
+++ b/Datos/Anuario2024/110102_LiquidacionPresupuestoMunicipal.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15" yWindow="4050" windowWidth="15330" windowHeight="4080" tabRatio="685" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-15" yWindow="4050" windowWidth="15330" windowHeight="4080" tabRatio="685"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1 graf1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1 graf2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="0" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="22" r:id="rId2"/>
+    <sheet name="1 graf1" sheetId="48" r:id="rId3"/>
+    <sheet name="1 graf2" sheetId="50" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
@@ -118,6 +124,8 @@
     <definedName name="_R8_4">#REF!</definedName>
     <definedName name="_R8_5">#REF!</definedName>
     <definedName name="a">'[3]1.1'!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'1 graf1'!$A$1:$B$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1 graf2'!$A$1:$B$25</definedName>
     <definedName name="b">#REF!</definedName>
     <definedName name="BLA">#REF!</definedName>
     <definedName name="gd">'[3]2.21'!$A$1:$G$50</definedName>
@@ -125,110 +133,239 @@
     <definedName name="n">'[3]1.1'!$A$1:$I$38</definedName>
     <definedName name="p">'[4]4.27'!$A$1:$G$22</definedName>
     <definedName name="u">'[4]4.17'!$A$1:$I$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'1 graf1'!$A$1:$B$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1 graf2'!$A$1:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+  <si>
+    <t>Presupuestos cerrados</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>INGRESOS</t>
+  </si>
+  <si>
+    <t>Previsión inicial</t>
+  </si>
+  <si>
+    <t>Modificación</t>
+  </si>
+  <si>
+    <t>Previsión definitiva</t>
+  </si>
+  <si>
+    <t>Derechos liquidados</t>
+  </si>
+  <si>
+    <t>Recaudación líquida</t>
+  </si>
+  <si>
+    <t>Pendiente de cobro</t>
+  </si>
+  <si>
+    <t>Estado de ejecución</t>
+  </si>
+  <si>
+    <t>RESUMEN</t>
+  </si>
+  <si>
+    <t>Presupuesto inicial</t>
+  </si>
+  <si>
+    <t>Presupuesto definitivo</t>
+  </si>
+  <si>
+    <t>Presupuesto final</t>
+  </si>
+  <si>
+    <t>Movimiento de fondos</t>
+  </si>
+  <si>
+    <t>Deudores - Acreedores</t>
+  </si>
+  <si>
+    <t>GASTOS</t>
+  </si>
+  <si>
+    <t>Pendiente de pago</t>
+  </si>
+  <si>
+    <t>Obligaciones liquidadas</t>
+  </si>
+  <si>
+    <t>Pagos líquidos</t>
+  </si>
+  <si>
+    <t>Ingresos</t>
+  </si>
+  <si>
+    <t>Gastos</t>
+  </si>
+  <si>
+    <t>Diferencias</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Presupuesto corriente</t>
+  </si>
+  <si>
+    <t>Impuestos directos</t>
+  </si>
+  <si>
+    <t>Impuestos indirectos</t>
+  </si>
+  <si>
+    <t>Tasas y otros ingresos</t>
+  </si>
+  <si>
+    <t>Ingresos patrimoniales</t>
+  </si>
+  <si>
+    <t>Variación activos financieros</t>
+  </si>
+  <si>
+    <t>Variación pasivos financieros</t>
+  </si>
+  <si>
+    <t>Inversiones reales</t>
+  </si>
+  <si>
+    <t>Intereses</t>
+  </si>
+  <si>
+    <t>Remuneraciones personal</t>
+  </si>
+  <si>
+    <t>Enajenación inversiones reales</t>
+  </si>
+  <si>
+    <t>Compra bienes corrientes y servicios</t>
+  </si>
+  <si>
+    <t>F. Contingencia y otros imprevistos</t>
+  </si>
+  <si>
+    <t>LIQUIDACIÓN DEL PRESUPUESTO MUNICIPAL</t>
+  </si>
+  <si>
+    <t>1. Liquidación del Presupuesto Municipal Ordinario. 2023</t>
+  </si>
+  <si>
+    <t>Nota: Datos en euros.</t>
+  </si>
+  <si>
+    <t>Fuente: Sección de Presupuestos, Cuentas y Créditos. Servicio de Contabilidad. Ayuntamiento de València.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="10"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="10"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -257,79 +394,80 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="6"/>
     <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="5"/>
     <cellStyle name="Normal 5" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="5"/>
-    <cellStyle name="Normal 2 2" xfId="6"/>
     <cellStyle name="Porcentaje 2" xfId="7"/>
     <cellStyle name="style1595592910070" xfId="8"/>
+    <cellStyle name="style1595592910101" xfId="10"/>
     <cellStyle name="style1595592910148" xfId="9"/>
-    <cellStyle name="style1595592910101" xfId="10"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -398,13 +536,148 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFD1C20A"/>
+      <color rgb="FFCC9900"/>
+      <color rgb="FFCCC701"/>
+      <color rgb="FFF9F3C7"/>
+      <color rgb="FFFAC090"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4829175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="161925" y="272415"/>
+          <a:ext cx="5038725" cy="3533775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139065</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4796790</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="139065" y="209550"/>
+          <a:ext cx="5029200" cy="3514725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -2062,8 +2335,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -13751,7 +14024,7 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v> </v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B4" t="str">
             <v>Immigrants</v>
@@ -17546,8 +17819,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -19729,8 +20002,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -20726,1397 +20999,1262 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="50.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>LIQUIDACIÓN DEL PRESUPUESTO MUNICIPAL</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
-    <col width="15.28515625" customWidth="1" min="2" max="2"/>
-    <col width="13.7109375" customWidth="1" min="3" max="3"/>
-    <col width="15.28515625" customWidth="1" min="4" max="4"/>
-    <col width="14.7109375" customWidth="1" min="5" max="6"/>
-    <col width="13.7109375" customWidth="1" min="7" max="7"/>
-    <col width="14.28515625" customWidth="1" min="8" max="8"/>
-    <col width="13.28515625" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>1. Liquidación del Presupuesto Municipal Ordinario. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="25" t="n"/>
-      <c r="C1" s="25" t="n"/>
-      <c r="D1" s="25" t="n"/>
-      <c r="E1" s="30" t="n"/>
-      <c r="F1" s="25" t="n"/>
-      <c r="G1" s="25" t="n"/>
-      <c r="H1" s="25" t="n"/>
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="25" t="n"/>
-      <c r="B2" s="25" t="n"/>
-      <c r="C2" s="30" t="n"/>
-      <c r="D2" s="25" t="n"/>
-      <c r="E2" s="30" t="n"/>
-      <c r="F2" s="25" t="n"/>
-      <c r="G2" s="30" t="n"/>
-      <c r="H2" s="25" t="n"/>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="33.75" customHeight="1">
-      <c r="A3" s="28" t="inlineStr">
-        <is>
-          <t>INGRESOS</t>
-        </is>
-      </c>
-      <c r="B3" s="16" t="inlineStr">
-        <is>
-          <t>Previsión inicial</t>
-        </is>
-      </c>
-      <c r="C3" s="16" t="inlineStr">
-        <is>
-          <t>Modificación</t>
-        </is>
-      </c>
-      <c r="D3" s="16" t="inlineStr">
-        <is>
-          <t>Previsión definitiva</t>
-        </is>
-      </c>
-      <c r="E3" s="16" t="inlineStr">
-        <is>
-          <t>Derechos liquidados</t>
-        </is>
-      </c>
-      <c r="F3" s="16" t="inlineStr">
-        <is>
-          <t>Recaudación líquida</t>
-        </is>
-      </c>
-      <c r="G3" s="16" t="inlineStr">
-        <is>
-          <t>Pendiente de cobro</t>
-        </is>
-      </c>
-      <c r="H3" s="16" t="inlineStr">
-        <is>
-          <t>Estado de ejecución</t>
-        </is>
+    <row r="3" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="25" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="30" t="n">
-        <v>1336802793.89</v>
-      </c>
-      <c r="C4" s="30" t="n">
-        <v>304308926.76</v>
-      </c>
-      <c r="D4" s="30" t="n">
-        <v>1641111720.65</v>
-      </c>
-      <c r="E4" s="30" t="n">
-        <v>1361377421.63</v>
-      </c>
-      <c r="F4" s="30" t="n">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1336802793.8899999</v>
+      </c>
+      <c r="C4" s="5">
+        <v>304308926.75999999</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1641111720.6499999</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1361377421.6300001</v>
+      </c>
+      <c r="F4" s="5">
         <v>1089685424.53</v>
       </c>
-      <c r="G4" s="30" t="n">
-        <v>271691997.1000001</v>
-      </c>
-      <c r="H4" s="30" t="n">
-        <v>-279734299.02</v>
+      <c r="G4" s="5">
+        <v>271691997.10000008</v>
+      </c>
+      <c r="H4" s="5">
+        <v>-279734299.01999998</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="13" t="inlineStr">
-        <is>
-          <t>Presupuestos cerrados</t>
-        </is>
-      </c>
-      <c r="B5" s="18" t="n">
-        <v>293933189.47</v>
-      </c>
-      <c r="C5" s="18" t="n">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="18" t="n">
-        <v>293933189.47</v>
-      </c>
-      <c r="E5" s="18" t="n">
-        <v>284909700.89</v>
-      </c>
-      <c r="F5" s="18" t="n">
-        <v>68527431.77</v>
-      </c>
-      <c r="G5" s="18" t="n">
-        <v>216382269.1200001</v>
-      </c>
-      <c r="H5" s="18" t="n">
-        <v>-9023488.579999983</v>
-      </c>
-      <c r="I5" s="20" t="n"/>
+      <c r="B5" s="14">
+        <v>293933189.47000003</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>293933189.47000003</v>
+      </c>
+      <c r="E5" s="14">
+        <v>284909700.89000005</v>
+      </c>
+      <c r="F5" s="14">
+        <v>68527431.769999996</v>
+      </c>
+      <c r="G5" s="14">
+        <v>216382269.12000006</v>
+      </c>
+      <c r="H5" s="14">
+        <v>-9023488.5799999833</v>
+      </c>
+      <c r="I5" s="20"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="25" t="inlineStr">
-        <is>
-          <t>Presupuesto corriente</t>
-        </is>
-      </c>
-      <c r="B6" s="30" t="n">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5">
         <v>1042869604.42</v>
       </c>
-      <c r="C6" s="30" t="n">
-        <v>304308926.76</v>
-      </c>
-      <c r="D6" s="30" t="n">
-        <v>1347178531.18</v>
-      </c>
-      <c r="E6" s="30" t="n">
+      <c r="C6" s="5">
+        <v>304308926.75999999</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1347178531.1799998</v>
+      </c>
+      <c r="E6" s="5">
         <v>1076467720.74</v>
       </c>
-      <c r="F6" s="30" t="n">
+      <c r="F6" s="5">
         <v>1021157992.76</v>
       </c>
-      <c r="G6" s="30" t="n">
-        <v>55309727.98000004</v>
-      </c>
-      <c r="H6" s="30" t="n">
+      <c r="G6" s="5">
+        <v>55309727.980000041</v>
+      </c>
+      <c r="H6" s="5">
         <v>-270710810.44</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="15" t="inlineStr">
-        <is>
-          <t>Impuestos directos</t>
-        </is>
-      </c>
-      <c r="B7" s="18" t="n">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="14">
         <v>363180116.63</v>
       </c>
-      <c r="C7" s="18" t="n">
+      <c r="C7" s="14">
         <v>0</v>
       </c>
-      <c r="D7" s="18" t="n">
+      <c r="D7" s="14">
         <v>363180116.63</v>
       </c>
-      <c r="E7" s="18" t="n">
-        <v>365714561.85</v>
-      </c>
-      <c r="F7" s="18" t="n">
-        <v>342332810.27</v>
-      </c>
-      <c r="G7" s="18" t="n">
-        <v>23381751.58000004</v>
-      </c>
-      <c r="H7" s="18" t="n">
-        <v>2534445.220000029</v>
-      </c>
-      <c r="I7" s="20" t="n"/>
+      <c r="E7" s="14">
+        <v>365714561.85000002</v>
+      </c>
+      <c r="F7" s="14">
+        <v>342332810.26999998</v>
+      </c>
+      <c r="G7" s="14">
+        <v>23381751.580000043</v>
+      </c>
+      <c r="H7" s="14">
+        <v>2534445.2200000286</v>
+      </c>
+      <c r="I7" s="20"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>Impuestos indirectos</t>
-        </is>
-      </c>
-      <c r="B8" s="30" t="n">
-        <v>38305078.56</v>
-      </c>
-      <c r="C8" s="30" t="n">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5">
+        <v>38305078.560000002</v>
+      </c>
+      <c r="C8" s="5">
         <v>0</v>
       </c>
-      <c r="D8" s="30" t="n">
-        <v>38305078.56</v>
-      </c>
-      <c r="E8" s="30" t="n">
-        <v>37946087.35</v>
-      </c>
-      <c r="F8" s="30" t="n">
-        <v>37698975.7</v>
-      </c>
-      <c r="G8" s="30" t="n">
-        <v>247111.6499999985</v>
-      </c>
-      <c r="H8" s="30" t="n">
-        <v>-358991.2100000009</v>
+      <c r="D8" s="5">
+        <v>38305078.560000002</v>
+      </c>
+      <c r="E8" s="5">
+        <v>37946087.350000001</v>
+      </c>
+      <c r="F8" s="5">
+        <v>37698975.700000003</v>
+      </c>
+      <c r="G8" s="5">
+        <v>247111.64999999851</v>
+      </c>
+      <c r="H8" s="5">
+        <v>-358991.21000000089</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="15" t="inlineStr">
-        <is>
-          <t>Tasas y otros ingresos</t>
-        </is>
-      </c>
-      <c r="B9" s="18" t="n">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="14">
         <v>100734778.38</v>
       </c>
-      <c r="C9" s="18" t="n">
+      <c r="C9" s="14">
         <v>31532.82</v>
       </c>
-      <c r="D9" s="18" t="n">
-        <v>100766311.2</v>
-      </c>
-      <c r="E9" s="18" t="n">
+      <c r="D9" s="14">
+        <v>100766311.19999999</v>
+      </c>
+      <c r="E9" s="14">
         <v>132718840.95</v>
       </c>
-      <c r="F9" s="18" t="n">
+      <c r="F9" s="14">
         <v>112512671.03</v>
       </c>
-      <c r="G9" s="18" t="n">
-        <v>20206169.92</v>
-      </c>
-      <c r="H9" s="17" t="n">
-        <v>31952529.75000001</v>
+      <c r="G9" s="14">
+        <v>20206169.920000002</v>
+      </c>
+      <c r="H9" s="17">
+        <v>31952529.750000015</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>Transferencias corrientes</t>
-        </is>
-      </c>
-      <c r="B10" s="30" t="n">
-        <v>459249539.18</v>
-      </c>
-      <c r="C10" s="30" t="n">
-        <v>28267988.95</v>
-      </c>
-      <c r="D10" s="30" t="n">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5">
+        <v>459249539.18000001</v>
+      </c>
+      <c r="C10" s="5">
+        <v>28267988.949999999</v>
+      </c>
+      <c r="D10" s="5">
         <v>487517528.13</v>
       </c>
-      <c r="E10" s="30" t="n">
-        <v>485545502.71</v>
-      </c>
-      <c r="F10" s="30" t="n">
-        <v>478254420.08</v>
-      </c>
-      <c r="G10" s="30" t="n">
-        <v>7291082.629999995</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <v>-1972025.420000017</v>
+      <c r="E10" s="5">
+        <v>485545502.70999998</v>
+      </c>
+      <c r="F10" s="5">
+        <v>478254420.07999998</v>
+      </c>
+      <c r="G10" s="5">
+        <v>7291082.6299999952</v>
+      </c>
+      <c r="H10" s="7">
+        <v>-1972025.4200000167</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="15" t="inlineStr">
-        <is>
-          <t>Ingresos patrimoniales</t>
-        </is>
-      </c>
-      <c r="B11" s="18" t="n">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="14">
         <v>8175000</v>
       </c>
-      <c r="C11" s="18" t="n">
+      <c r="C11" s="14">
         <v>0</v>
       </c>
-      <c r="D11" s="18" t="n">
+      <c r="D11" s="14">
         <v>8175000</v>
       </c>
-      <c r="E11" s="18" t="n">
-        <v>16951838.42</v>
-      </c>
-      <c r="F11" s="18" t="n">
-        <v>15208688.95</v>
-      </c>
-      <c r="G11" s="18" t="n">
-        <v>1743149.470000003</v>
-      </c>
-      <c r="H11" s="17" t="n">
-        <v>8776838.420000002</v>
+      <c r="E11" s="14">
+        <v>16951838.420000002</v>
+      </c>
+      <c r="F11" s="14">
+        <v>15208688.949999999</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1743149.4700000025</v>
+      </c>
+      <c r="H11" s="17">
+        <v>8776838.4200000018</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="11" t="inlineStr">
-        <is>
-          <t>Enajenación inversiones reales</t>
-        </is>
-      </c>
-      <c r="B12" s="30" t="n">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="5">
         <v>6446692</v>
       </c>
-      <c r="C12" s="30" t="n">
+      <c r="C12" s="5">
         <v>3679144.66</v>
       </c>
-      <c r="D12" s="30" t="n">
+      <c r="D12" s="5">
         <v>10125836.66</v>
       </c>
-      <c r="E12" s="30" t="n">
-        <v>9350413.720000001</v>
-      </c>
-      <c r="F12" s="30" t="n">
+      <c r="E12" s="5">
+        <v>9350413.7200000007</v>
+      </c>
+      <c r="F12" s="5">
         <v>7595144.96</v>
       </c>
-      <c r="G12" s="30" t="n">
-        <v>1755268.760000001</v>
-      </c>
-      <c r="H12" s="7" t="n">
-        <v>-775422.9399999995</v>
+      <c r="G12" s="5">
+        <v>1755268.7600000007</v>
+      </c>
+      <c r="H12" s="7">
+        <v>-775422.93999999948</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="15" t="inlineStr">
-        <is>
-          <t>Transferencias de capital</t>
-        </is>
-      </c>
-      <c r="B13" s="18" t="n">
-        <v>31478399.67</v>
-      </c>
-      <c r="C13" s="18" t="n">
-        <v>49785445.81</v>
-      </c>
-      <c r="D13" s="18" t="n">
-        <v>81263845.48</v>
-      </c>
-      <c r="E13" s="18" t="n">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="14">
+        <v>31478399.670000002</v>
+      </c>
+      <c r="C13" s="14">
+        <v>49785445.810000002</v>
+      </c>
+      <c r="D13" s="14">
+        <v>81263845.480000004</v>
+      </c>
+      <c r="E13" s="14">
         <v>27723153.18</v>
       </c>
-      <c r="F13" s="18" t="n">
-        <v>27041646.46</v>
-      </c>
-      <c r="G13" s="18" t="n">
-        <v>681506.7199999988</v>
-      </c>
-      <c r="H13" s="17" t="n">
-        <v>-53540692.3</v>
+      <c r="F13" s="14">
+        <v>27041646.460000001</v>
+      </c>
+      <c r="G13" s="14">
+        <v>681506.71999999881</v>
+      </c>
+      <c r="H13" s="17">
+        <v>-53540692.300000004</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="11" t="inlineStr">
-        <is>
-          <t>Variación activos financieros</t>
-        </is>
-      </c>
-      <c r="B14" s="30" t="n">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="5">
         <v>300000</v>
       </c>
-      <c r="C14" s="30" t="n">
-        <v>222544814.52</v>
-      </c>
-      <c r="D14" s="30" t="n">
-        <v>222844814.52</v>
-      </c>
-      <c r="E14" s="30" t="n">
+      <c r="C14" s="5">
+        <v>222544814.52000001</v>
+      </c>
+      <c r="D14" s="5">
+        <v>222844814.52000001</v>
+      </c>
+      <c r="E14" s="5">
         <v>517322.56</v>
       </c>
-      <c r="F14" s="30" t="n">
+      <c r="F14" s="5">
         <v>513635.31</v>
       </c>
-      <c r="G14" s="30" t="n">
+      <c r="G14" s="5">
         <v>3687.25</v>
       </c>
-      <c r="H14" s="7" t="n">
-        <v>-222327491.96</v>
+      <c r="H14" s="7">
+        <v>-222327491.96000001</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="15" t="inlineStr">
-        <is>
-          <t>Variación pasivos financieros</t>
-        </is>
-      </c>
-      <c r="B15" s="18" t="n">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="14">
         <v>35000000</v>
       </c>
-      <c r="C15" s="18" t="n">
+      <c r="C15" s="14">
         <v>0</v>
       </c>
-      <c r="D15" s="18" t="n">
+      <c r="D15" s="14">
         <v>35000000</v>
       </c>
-      <c r="E15" s="18" t="n">
+      <c r="E15" s="14">
         <v>0</v>
       </c>
-      <c r="F15" s="18" t="n">
+      <c r="F15" s="14">
         <v>0</v>
       </c>
-      <c r="G15" s="18" t="n">
+      <c r="G15" s="14">
         <v>0</v>
       </c>
-      <c r="H15" s="17" t="n">
+      <c r="H15" s="17">
         <v>-35000000</v>
       </c>
     </row>
-    <row r="16" ht="14.1" customHeight="1">
-      <c r="A16" s="25" t="n"/>
-      <c r="B16" s="8" t="n"/>
-      <c r="C16" s="25" t="n"/>
-      <c r="D16" s="30" t="n"/>
-      <c r="E16" s="25" t="n"/>
-      <c r="F16" s="25" t="n"/>
-      <c r="G16" s="30" t="n"/>
-      <c r="H16" s="7" t="n"/>
+    <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="7"/>
     </row>
-    <row r="17" ht="33.75" customHeight="1">
-      <c r="A17" s="28" t="inlineStr">
-        <is>
-          <t>GASTOS</t>
-        </is>
-      </c>
-      <c r="B17" s="16" t="inlineStr">
-        <is>
-          <t>Previsión inicial</t>
-        </is>
-      </c>
-      <c r="C17" s="16" t="inlineStr">
-        <is>
-          <t>Modificación</t>
-        </is>
-      </c>
-      <c r="D17" s="16" t="inlineStr">
-        <is>
-          <t>Previsión definitiva</t>
-        </is>
-      </c>
-      <c r="E17" s="16" t="inlineStr">
-        <is>
-          <t>Obligaciones liquidadas</t>
-        </is>
-      </c>
-      <c r="F17" s="16" t="inlineStr">
-        <is>
-          <t>Pagos líquidos</t>
-        </is>
-      </c>
-      <c r="G17" s="16" t="inlineStr">
-        <is>
-          <t>Pendiente de pago</t>
-        </is>
-      </c>
-      <c r="H17" s="16" t="inlineStr">
-        <is>
-          <t>Estado de ejecución</t>
-        </is>
+    <row r="17" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="25" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B18" s="30" t="n">
-        <v>1082347411.15</v>
-      </c>
-      <c r="C18" s="30" t="n">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="30">
+        <v>1082347411.1499999</v>
+      </c>
+      <c r="C18" s="30">
         <v>302055414.62</v>
       </c>
-      <c r="D18" s="30" t="n">
-        <v>1384402825.77</v>
-      </c>
-      <c r="E18" s="30" t="n">
-        <v>1119688197.32</v>
-      </c>
-      <c r="F18" s="30" t="n">
+      <c r="D18" s="30">
+        <v>1384402825.7700002</v>
+      </c>
+      <c r="E18" s="30">
+        <v>1119688197.3200002</v>
+      </c>
+      <c r="F18" s="30">
         <v>1073004127.22</v>
       </c>
-      <c r="G18" s="30" t="n">
-        <v>46684070.10000002</v>
-      </c>
-      <c r="H18" s="30" t="n">
-        <v>-264714628.45</v>
+      <c r="G18" s="30">
+        <v>46684070.100000016</v>
+      </c>
+      <c r="H18" s="30">
+        <v>-264714628.44999999</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="13" t="inlineStr">
-        <is>
-          <t>Presupuestos cerrados</t>
-        </is>
-      </c>
-      <c r="B19" s="18" t="n">
-        <v>39477806.73</v>
-      </c>
-      <c r="C19" s="18" t="n">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="18" t="n">
-        <v>39477806.73</v>
-      </c>
-      <c r="E19" s="18" t="n">
-        <v>39477806.73</v>
-      </c>
-      <c r="F19" s="18" t="n">
-        <v>38329751.67</v>
-      </c>
-      <c r="G19" s="18" t="n">
-        <v>1148055.059999995</v>
-      </c>
-      <c r="H19" s="18" t="n">
+      <c r="B19" s="18">
+        <v>39477806.729999997</v>
+      </c>
+      <c r="C19" s="18">
         <v>0</v>
       </c>
+      <c r="D19" s="18">
+        <v>39477806.729999997</v>
+      </c>
+      <c r="E19" s="18">
+        <v>39477806.729999997</v>
+      </c>
+      <c r="F19" s="18">
+        <v>38329751.670000002</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1148055.0599999949</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="25" t="inlineStr">
-        <is>
-          <t>Presupuesto corriente</t>
-        </is>
-      </c>
-      <c r="B20" s="30" t="n">
-        <v>1042869604.42</v>
-      </c>
-      <c r="C20" s="30" t="n">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="30">
+        <v>1042869604.4199998</v>
+      </c>
+      <c r="C20" s="12">
         <v>302055414.62</v>
       </c>
-      <c r="D20" s="30" t="n">
-        <v>1344925019.04</v>
-      </c>
-      <c r="E20" s="30" t="n">
-        <v>1080210390.59</v>
-      </c>
-      <c r="F20" s="30" t="n">
-        <v>1034674375.55</v>
-      </c>
-      <c r="G20" s="30" t="n">
-        <v>45536015.04000002</v>
-      </c>
-      <c r="H20" s="30" t="n">
-        <v>-264714628.45</v>
+      <c r="D20" s="5">
+        <v>1344925019.0400002</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1080210390.5900002</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1034674375.5500001</v>
+      </c>
+      <c r="G20" s="5">
+        <v>45536015.040000021</v>
+      </c>
+      <c r="H20" s="5">
+        <v>-264714628.44999999</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="15" t="inlineStr">
-        <is>
-          <t>Remuneraciones personal</t>
-        </is>
-      </c>
-      <c r="B21" s="18" t="n">
-        <v>338790210.36</v>
-      </c>
-      <c r="C21" s="18" t="n">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="14">
+        <v>338790210.36000001</v>
+      </c>
+      <c r="C21" s="14">
         <v>13291969.92</v>
       </c>
-      <c r="D21" s="18" t="n">
-        <v>352082180.28</v>
-      </c>
-      <c r="E21" s="18" t="n">
-        <v>343608488.72</v>
-      </c>
-      <c r="F21" s="18" t="n">
+      <c r="D21" s="14">
+        <v>352082180.28000003</v>
+      </c>
+      <c r="E21" s="14">
+        <v>343608488.72000003</v>
+      </c>
+      <c r="F21" s="14">
         <v>343608318.75</v>
       </c>
-      <c r="G21" s="18" t="n">
-        <v>169.9700000286102</v>
-      </c>
-      <c r="H21" s="18" t="n">
-        <v>-8473691.560000002</v>
+      <c r="G21" s="14">
+        <v>169.97000002861023</v>
+      </c>
+      <c r="H21" s="14">
+        <v>-8473691.5600000024</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>Compra bienes corrientes y servicios</t>
-        </is>
-      </c>
-      <c r="B22" s="30" t="n">
-        <v>310041209.17</v>
-      </c>
-      <c r="C22" s="30" t="n">
-        <v>15343249.89</v>
-      </c>
-      <c r="D22" s="30" t="n">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="5">
+        <v>310041209.17000002</v>
+      </c>
+      <c r="C22" s="5">
+        <v>15343249.890000001</v>
+      </c>
+      <c r="D22" s="5">
         <v>325384459.06</v>
       </c>
-      <c r="E22" s="30" t="n">
+      <c r="E22" s="5">
         <v>286689506.94</v>
       </c>
-      <c r="F22" s="30" t="n">
-        <v>261813483.2</v>
-      </c>
-      <c r="G22" s="30" t="n">
+      <c r="F22" s="5">
+        <v>261813483.19999999</v>
+      </c>
+      <c r="G22" s="5">
         <v>24876023.74000001</v>
       </c>
-      <c r="H22" s="30" t="n">
-        <v>-38694952.12</v>
+      <c r="H22" s="5">
+        <v>-38694952.120000005</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="15" t="inlineStr">
-        <is>
-          <t>Intereses</t>
-        </is>
-      </c>
-      <c r="B23" s="18" t="n">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="14">
         <v>11884138</v>
       </c>
-      <c r="C23" s="18" t="n">
-        <v>-2587676.53</v>
-      </c>
-      <c r="D23" s="18" t="n">
-        <v>9296461.470000001</v>
-      </c>
-      <c r="E23" s="18" t="n">
-        <v>7952311.9</v>
-      </c>
-      <c r="F23" s="18" t="n">
-        <v>7913831.49</v>
-      </c>
-      <c r="G23" s="18" t="n">
-        <v>38480.41000000015</v>
-      </c>
-      <c r="H23" s="17" t="n">
-        <v>-1344149.57</v>
+      <c r="C23" s="14">
+        <v>-2587676.5299999998</v>
+      </c>
+      <c r="D23" s="14">
+        <v>9296461.4700000007</v>
+      </c>
+      <c r="E23" s="14">
+        <v>7952311.9000000004</v>
+      </c>
+      <c r="F23" s="14">
+        <v>7913831.4900000002</v>
+      </c>
+      <c r="G23" s="14">
+        <v>38480.410000000149</v>
+      </c>
+      <c r="H23" s="17">
+        <v>-1344149.5700000003</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="11" t="inlineStr">
-        <is>
-          <t>Transferencias corrientes</t>
-        </is>
-      </c>
-      <c r="B24" s="30" t="n">
-        <v>191891715.57</v>
-      </c>
-      <c r="C24" s="30" t="n">
-        <v>36444473.14</v>
-      </c>
-      <c r="D24" s="30" t="n">
-        <v>228336188.71</v>
-      </c>
-      <c r="E24" s="30" t="n">
-        <v>217476429.29</v>
-      </c>
-      <c r="F24" s="30" t="n">
-        <v>205431451.43</v>
-      </c>
-      <c r="G24" s="30" t="n">
-        <v>12044977.85999998</v>
-      </c>
-      <c r="H24" s="7" t="n">
-        <v>-10859759.41999999</v>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="5">
+        <v>191891715.56999999</v>
+      </c>
+      <c r="C24" s="5">
+        <v>36444473.140000001</v>
+      </c>
+      <c r="D24" s="5">
+        <v>228336188.70999998</v>
+      </c>
+      <c r="E24" s="5">
+        <v>217476429.28999999</v>
+      </c>
+      <c r="F24" s="5">
+        <v>205431451.43000001</v>
+      </c>
+      <c r="G24" s="5">
+        <v>12044977.859999985</v>
+      </c>
+      <c r="H24" s="7">
+        <v>-10859759.419999987</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="15" t="inlineStr">
-        <is>
-          <t>F. Contingencia y otros imprevistos</t>
-        </is>
-      </c>
-      <c r="B25" s="18" t="n">
-        <v>17674718.8</v>
-      </c>
-      <c r="C25" s="18" t="n">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="14">
+        <v>17674718.800000001</v>
+      </c>
+      <c r="C25" s="14">
         <v>-12442854.68</v>
       </c>
-      <c r="D25" s="18" t="n">
+      <c r="D25" s="14">
         <v>5231864.120000001</v>
       </c>
-      <c r="E25" s="18" t="n">
+      <c r="E25" s="14">
         <v>0</v>
       </c>
-      <c r="F25" s="18" t="n">
+      <c r="F25" s="14">
         <v>0</v>
       </c>
-      <c r="G25" s="18" t="n">
+      <c r="G25" s="14">
         <v>0</v>
       </c>
-      <c r="H25" s="17" t="n">
+      <c r="H25" s="17">
         <v>-5231864.120000001</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="11" t="inlineStr">
-        <is>
-          <t>Inversiones reales</t>
-        </is>
-      </c>
-      <c r="B26" s="30" t="n">
-        <v>79999883.02</v>
-      </c>
-      <c r="C26" s="30" t="n">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="5">
+        <v>79999883.019999996</v>
+      </c>
+      <c r="C26" s="5">
         <v>197767951.47</v>
       </c>
-      <c r="D26" s="30" t="n">
-        <v>277767834.49</v>
-      </c>
-      <c r="E26" s="30" t="n">
-        <v>123015933.99</v>
-      </c>
-      <c r="F26" s="30" t="n">
-        <v>115990668.85</v>
-      </c>
-      <c r="G26" s="30" t="n">
-        <v>7025265.140000001</v>
-      </c>
-      <c r="H26" s="7" t="n">
+      <c r="D26" s="5">
+        <v>277767834.49000001</v>
+      </c>
+      <c r="E26" s="5">
+        <v>123015933.98999999</v>
+      </c>
+      <c r="F26" s="5">
+        <v>115990668.84999999</v>
+      </c>
+      <c r="G26" s="5">
+        <v>7025265.1400000006</v>
+      </c>
+      <c r="H26" s="7">
         <v>-154751900.5</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="15" t="inlineStr">
-        <is>
-          <t>Transferencias de capital</t>
-        </is>
-      </c>
-      <c r="B27" s="18" t="n">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="14">
         <v>55187729.5</v>
       </c>
-      <c r="C27" s="18" t="n">
+      <c r="C27" s="14">
         <v>17638301.41</v>
       </c>
-      <c r="D27" s="18" t="n">
-        <v>72826030.91</v>
-      </c>
-      <c r="E27" s="18" t="n">
-        <v>27538397.94</v>
-      </c>
-      <c r="F27" s="18" t="n">
+      <c r="D27" s="14">
+        <v>72826030.909999996</v>
+      </c>
+      <c r="E27" s="14">
+        <v>27538397.940000001</v>
+      </c>
+      <c r="F27" s="14">
         <v>25987300.02</v>
       </c>
-      <c r="G27" s="18" t="n">
-        <v>1551097.920000002</v>
-      </c>
-      <c r="H27" s="17" t="n">
-        <v>-45287632.97</v>
+      <c r="G27" s="14">
+        <v>1551097.9200000018</v>
+      </c>
+      <c r="H27" s="17">
+        <v>-45287632.969999999</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>Variación activos financieros</t>
-        </is>
-      </c>
-      <c r="B28" s="30" t="n">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="5">
         <v>300000</v>
       </c>
-      <c r="C28" s="30" t="n">
+      <c r="C28" s="5">
         <v>30100000</v>
       </c>
-      <c r="D28" s="30" t="n">
+      <c r="D28" s="5">
         <v>30400000</v>
       </c>
-      <c r="E28" s="30" t="n">
-        <v>30329321.88</v>
-      </c>
-      <c r="F28" s="30" t="n">
-        <v>30329321.88</v>
-      </c>
-      <c r="G28" s="30" t="n">
+      <c r="E28" s="5">
+        <v>30329321.879999999</v>
+      </c>
+      <c r="F28" s="5">
+        <v>30329321.879999999</v>
+      </c>
+      <c r="G28" s="5">
         <v>0</v>
       </c>
-      <c r="H28" s="7" t="n">
-        <v>-70678.12000000104</v>
+      <c r="H28" s="7">
+        <v>-70678.120000001043</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="15" t="inlineStr">
-        <is>
-          <t>Variación pasivos financieros</t>
-        </is>
-      </c>
-      <c r="B29" s="18" t="n">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="14">
         <v>37100000</v>
       </c>
-      <c r="C29" s="18" t="n">
+      <c r="C29" s="14">
         <v>6500000</v>
       </c>
-      <c r="D29" s="18" t="n">
+      <c r="D29" s="14">
         <v>43600000</v>
       </c>
-      <c r="E29" s="18" t="n">
+      <c r="E29" s="14">
         <v>43599999.93</v>
       </c>
-      <c r="F29" s="18" t="n">
+      <c r="F29" s="14">
         <v>43599999.93</v>
       </c>
-      <c r="G29" s="18" t="n">
+      <c r="G29" s="14">
         <v>0</v>
       </c>
-      <c r="H29" s="18" t="n">
-        <v>-0.07000000029802322</v>
+      <c r="H29" s="14">
+        <v>-7.0000000298023224E-2</v>
       </c>
     </row>
-    <row r="30" ht="14.1" customHeight="1">
-      <c r="A30" s="25" t="n"/>
-      <c r="B30" s="25" t="n"/>
-      <c r="C30" s="25" t="n"/>
-      <c r="D30" s="30" t="n"/>
-      <c r="E30" s="25" t="n"/>
-      <c r="F30" s="25" t="n"/>
-      <c r="G30" s="25" t="n"/>
-      <c r="H30" s="25" t="n"/>
+    <row r="30" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
-    <row r="31" ht="33.75" customHeight="1">
-      <c r="A31" s="28" t="inlineStr">
-        <is>
-          <t>RESUMEN</t>
-        </is>
-      </c>
-      <c r="B31" s="16" t="inlineStr">
-        <is>
-          <t>Presupuesto inicial</t>
-        </is>
-      </c>
-      <c r="C31" s="16" t="inlineStr">
-        <is>
-          <t>Modificación</t>
-        </is>
-      </c>
-      <c r="D31" s="16" t="inlineStr">
-        <is>
-          <t>Presupuesto definitivo</t>
-        </is>
-      </c>
-      <c r="E31" s="16" t="inlineStr">
-        <is>
-          <t>Presupuesto final</t>
-        </is>
-      </c>
-      <c r="F31" s="16" t="inlineStr">
-        <is>
-          <t>Movimiento de fondos</t>
-        </is>
-      </c>
-      <c r="G31" s="16" t="inlineStr">
-        <is>
-          <t>Deudores - Acreedores</t>
-        </is>
-      </c>
-      <c r="H31" s="16" t="inlineStr">
-        <is>
-          <t>Estado de ejecución</t>
-        </is>
+    <row r="31" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="25" t="inlineStr">
-        <is>
-          <t>Ingresos</t>
-        </is>
-      </c>
-      <c r="B32" s="30" t="n">
-        <v>1336802793.89</v>
-      </c>
-      <c r="C32" s="30" t="n">
-        <v>304308926.76</v>
-      </c>
-      <c r="D32" s="30" t="n">
-        <v>1641111720.65</v>
-      </c>
-      <c r="E32" s="30" t="n">
-        <v>1361377421.63</v>
-      </c>
-      <c r="F32" s="30" t="n">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1336802793.8899999</v>
+      </c>
+      <c r="C32" s="5">
+        <v>304308926.75999999</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1641111720.6499999</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1361377421.6300001</v>
+      </c>
+      <c r="F32" s="5">
         <v>1089685424.53</v>
       </c>
-      <c r="G32" s="30" t="n">
-        <v>271691997.1000001</v>
-      </c>
-      <c r="H32" s="30" t="n">
-        <v>-279734299.02</v>
+      <c r="G32" s="5">
+        <v>271691997.10000008</v>
+      </c>
+      <c r="H32" s="5">
+        <v>-279734299.01999998</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="13" t="inlineStr">
-        <is>
-          <t>Gastos</t>
-        </is>
-      </c>
-      <c r="B33" s="18" t="n">
-        <v>1082347411.15</v>
-      </c>
-      <c r="C33" s="18" t="n">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="14">
+        <v>1082347411.1499999</v>
+      </c>
+      <c r="C33" s="14">
         <v>302055414.62</v>
       </c>
-      <c r="D33" s="18" t="n">
-        <v>1384402825.77</v>
-      </c>
-      <c r="E33" s="18" t="n">
-        <v>1119688197.32</v>
-      </c>
-      <c r="F33" s="18" t="n">
+      <c r="D33" s="14">
+        <v>1384402825.7700002</v>
+      </c>
+      <c r="E33" s="14">
+        <v>1119688197.3200002</v>
+      </c>
+      <c r="F33" s="14">
         <v>1073004127.22</v>
       </c>
-      <c r="G33" s="18" t="n">
-        <v>46684070.10000002</v>
-      </c>
-      <c r="H33" s="18" t="n">
-        <v>-264714628.45</v>
+      <c r="G33" s="14">
+        <v>46684070.100000016</v>
+      </c>
+      <c r="H33" s="14">
+        <v>-264714628.44999999</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="25" t="inlineStr">
-        <is>
-          <t>Diferencias</t>
-        </is>
-      </c>
-      <c r="B34" s="30" t="n">
-        <v>254455382.74</v>
-      </c>
-      <c r="C34" s="30" t="n">
-        <v>2253512.139999986</v>
-      </c>
-      <c r="D34" s="30" t="n">
-        <v>256708894.8799996</v>
-      </c>
-      <c r="E34" s="30" t="n">
-        <v>241689224.3099999</v>
-      </c>
-      <c r="F34" s="30" t="n">
-        <v>16681297.30999994</v>
-      </c>
-      <c r="G34" s="30" t="n">
-        <v>225007927.0000001</v>
-      </c>
-      <c r="H34" s="30" t="n">
-        <v>-15019670.56999999</v>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="5">
+        <v>254455382.74000001</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2253512.1399999857</v>
+      </c>
+      <c r="D34" s="5">
+        <v>256708894.87999964</v>
+      </c>
+      <c r="E34" s="5">
+        <v>241689224.30999994</v>
+      </c>
+      <c r="F34" s="5">
+        <v>16681297.309999943</v>
+      </c>
+      <c r="G34" s="5">
+        <v>225007927.00000006</v>
+      </c>
+      <c r="H34" s="5">
+        <v>-15019670.569999993</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="10" t="inlineStr">
-        <is>
-          <t>Nota: Datos en euros.</t>
-        </is>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="10" t="inlineStr">
-        <is>
-          <t>Fuente: Sección de Presupuestos, Cuentas y Créditos. Servicio de Contabilidad. Ayuntamiento de València.</t>
-        </is>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="39">
-      <c r="B39" s="20" t="n"/>
-      <c r="C39" s="20" t="n"/>
-      <c r="D39" s="20" t="n"/>
-      <c r="E39" s="20" t="n"/>
-      <c r="F39" s="20" t="n"/>
-      <c r="G39" s="20" t="n"/>
-      <c r="H39" s="20" t="n"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="73" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="73" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:E25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="27" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" style="27" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="27" min="3" max="3"/>
-    <col width="16.42578125" customWidth="1" style="27" min="4" max="4"/>
-    <col width="14.5703125" customWidth="1" style="27" min="5" max="5"/>
-    <col width="11.42578125" customWidth="1" style="27" min="6" max="16384"/>
+    <col min="1" max="1" width="5.5703125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="C1" s="27" t="n"/>
-      <c r="E1" s="27" t="n"/>
+    <row r="1" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="27"/>
+      <c r="E1" s="26"/>
     </row>
-    <row r="5">
-      <c r="C5" s="21" t="n"/>
-      <c r="D5" s="25" t="n"/>
-      <c r="E5" s="30" t="n"/>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="21"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="12"/>
     </row>
-    <row r="6">
-      <c r="D6" s="11" t="n"/>
-      <c r="E6" s="30" t="n"/>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
-    <row r="7">
-      <c r="D7" s="11" t="n"/>
-      <c r="E7" s="30" t="n"/>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
     </row>
-    <row r="8">
-      <c r="D8" s="11" t="n"/>
-      <c r="E8" s="30" t="n"/>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
-    <row r="9">
-      <c r="D9" s="11" t="n"/>
-      <c r="E9" s="30" t="n"/>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
     </row>
-    <row r="10">
-      <c r="D10" s="11" t="n"/>
-      <c r="E10" s="30" t="n"/>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
     </row>
-    <row r="11">
-      <c r="D11" s="11" t="n"/>
-      <c r="E11" s="30" t="n"/>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
     </row>
-    <row r="12">
-      <c r="D12" s="11" t="n"/>
-      <c r="E12" s="30" t="n"/>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
     </row>
-    <row r="13">
-      <c r="D13" s="11" t="n"/>
-      <c r="E13" s="30" t="n"/>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
     </row>
-    <row r="14">
-      <c r="D14" s="11" t="n"/>
-      <c r="E14" s="30" t="n"/>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
     </row>
-    <row r="25">
-      <c r="B25" s="29" t="n"/>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="29"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja6">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G73"/>
+  <dimension ref="B1:Q73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="1" min="3" max="3"/>
-    <col width="16.42578125" customWidth="1" style="1" min="4" max="4"/>
-    <col width="14.5703125" customWidth="1" style="1" min="5" max="5"/>
-    <col width="11.42578125" customWidth="1" style="22" min="6" max="7"/>
-    <col width="11.42578125" customWidth="1" style="1" min="8" max="17"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="22" customWidth="1"/>
+    <col min="8" max="17" width="11.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n"/>
-      <c r="E1" s="22" t="n"/>
-      <c r="G1" s="1" t="n"/>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1" s="1"/>
+      <c r="E1" s="22"/>
+      <c r="G1" s="1"/>
+      <c r="Q1"/>
     </row>
-    <row r="5">
-      <c r="D5" s="23" t="n"/>
-      <c r="E5" s="19" t="n"/>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D5" s="23"/>
+      <c r="E5" s="19"/>
     </row>
-    <row r="6">
-      <c r="D6" s="24" t="n"/>
-      <c r="E6" s="19" t="n"/>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D6" s="24"/>
+      <c r="E6" s="19"/>
     </row>
-    <row r="7">
-      <c r="D7" s="24" t="n"/>
-      <c r="E7" s="19" t="n"/>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D7" s="24"/>
+      <c r="E7" s="19"/>
     </row>
-    <row r="8">
-      <c r="D8" s="24" t="n"/>
-      <c r="E8" s="19" t="n"/>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D8" s="24"/>
+      <c r="E8" s="19"/>
     </row>
-    <row r="9">
-      <c r="D9" s="24" t="n"/>
-      <c r="E9" s="19" t="n"/>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D9" s="24"/>
+      <c r="E9" s="19"/>
     </row>
-    <row r="10">
-      <c r="D10" s="24" t="n"/>
-      <c r="E10" s="19" t="n"/>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D10" s="24"/>
+      <c r="E10" s="19"/>
     </row>
-    <row r="11">
-      <c r="D11" s="24" t="n"/>
-      <c r="E11" s="19" t="n"/>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D11" s="24"/>
+      <c r="E11" s="19"/>
     </row>
-    <row r="12">
-      <c r="D12" s="24" t="n"/>
-      <c r="E12" s="19" t="n"/>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D12" s="24"/>
+      <c r="E12" s="19"/>
     </row>
-    <row r="13">
-      <c r="D13" s="24" t="n"/>
-      <c r="E13" s="19" t="n"/>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D13" s="24"/>
+      <c r="E13" s="19"/>
     </row>
-    <row r="14">
-      <c r="E14" s="19" t="n"/>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E14" s="2"/>
     </row>
-    <row r="23" customFormat="1" s="1">
-      <c r="F23" s="22" t="n"/>
-      <c r="G23" s="22" t="n"/>
+    <row r="23" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
     </row>
-    <row r="24" customFormat="1" s="1">
-      <c r="F24" s="22" t="n"/>
-      <c r="G24" s="22" t="n"/>
+    <row r="24" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
     </row>
-    <row r="25" customFormat="1" s="1">
-      <c r="F25" s="22" t="n"/>
-      <c r="G25" s="22" t="n"/>
+    <row r="25" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
     </row>
-    <row r="26" customFormat="1" s="1">
-      <c r="F26" s="22" t="n"/>
-      <c r="G26" s="22" t="n"/>
+    <row r="26" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
     </row>
-    <row r="27" customFormat="1" s="1">
-      <c r="F27" s="22" t="n"/>
-      <c r="G27" s="22" t="n"/>
+    <row r="27" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
     </row>
-    <row r="28" customFormat="1" s="1">
-      <c r="F28" s="22" t="n"/>
-      <c r="G28" s="22" t="n"/>
+    <row r="28" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
     </row>
-    <row r="29" customFormat="1" s="1">
-      <c r="F29" s="22" t="n"/>
-      <c r="G29" s="22" t="n"/>
+    <row r="29" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
     </row>
-    <row r="30" customFormat="1" s="1">
-      <c r="F30" s="22" t="n"/>
-      <c r="G30" s="22" t="n"/>
+    <row r="30" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
     </row>
-    <row r="31" customFormat="1" s="1">
-      <c r="F31" s="22" t="n"/>
-      <c r="G31" s="22" t="n"/>
+    <row r="31" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
     </row>
-    <row r="32" customFormat="1" s="1">
-      <c r="F32" s="22" t="n"/>
-      <c r="G32" s="22" t="n"/>
+    <row r="32" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
     </row>
-    <row r="33" customFormat="1" s="1">
-      <c r="F33" s="22" t="n"/>
-      <c r="G33" s="22" t="n"/>
+    <row r="33" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
     </row>
-    <row r="34" customFormat="1" s="1">
-      <c r="F34" s="22" t="n"/>
-      <c r="G34" s="22" t="n"/>
+    <row r="34" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
     </row>
-    <row r="35" customFormat="1" s="1">
-      <c r="F35" s="22" t="n"/>
-      <c r="G35" s="22" t="n"/>
+    <row r="35" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
     </row>
-    <row r="36" customFormat="1" s="1">
-      <c r="F36" s="22" t="n"/>
-      <c r="G36" s="22" t="n"/>
+    <row r="36" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
     </row>
-    <row r="37" customFormat="1" s="1">
-      <c r="F37" s="22" t="n"/>
-      <c r="G37" s="22" t="n"/>
+    <row r="37" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
     </row>
-    <row r="38" customFormat="1" s="1">
-      <c r="F38" s="22" t="n"/>
-      <c r="G38" s="22" t="n"/>
+    <row r="38" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
     </row>
-    <row r="39" customFormat="1" s="1">
-      <c r="F39" s="22" t="n"/>
-      <c r="G39" s="22" t="n"/>
+    <row r="39" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
     </row>
-    <row r="40" customFormat="1" s="1">
-      <c r="F40" s="22" t="n"/>
-      <c r="G40" s="22" t="n"/>
+    <row r="40" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
-    <row r="41" customFormat="1" s="1">
-      <c r="F41" s="22" t="n"/>
-      <c r="G41" s="22" t="n"/>
+    <row r="41" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
     </row>
-    <row r="42" customFormat="1" s="1">
-      <c r="F42" s="22" t="n"/>
-      <c r="G42" s="22" t="n"/>
+    <row r="42" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
     </row>
-    <row r="43" customFormat="1" s="1">
-      <c r="F43" s="22" t="n"/>
-      <c r="G43" s="22" t="n"/>
+    <row r="43" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
     </row>
-    <row r="44" customFormat="1" s="1">
-      <c r="F44" s="22" t="n"/>
-      <c r="G44" s="22" t="n"/>
+    <row r="44" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
     </row>
-    <row r="45" customFormat="1" s="1">
-      <c r="F45" s="22" t="n"/>
-      <c r="G45" s="22" t="n"/>
+    <row r="45" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
     </row>
-    <row r="46" customFormat="1" s="1">
-      <c r="F46" s="22" t="n"/>
-      <c r="G46" s="22" t="n"/>
+    <row r="46" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
     </row>
-    <row r="47" customFormat="1" s="1">
-      <c r="F47" s="22" t="n"/>
-      <c r="G47" s="22" t="n"/>
+    <row r="47" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
     </row>
-    <row r="48" customFormat="1" s="1">
-      <c r="F48" s="22" t="n"/>
-      <c r="G48" s="22" t="n"/>
+    <row r="48" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
     </row>
-    <row r="49" customFormat="1" s="1">
-      <c r="F49" s="22" t="n"/>
-      <c r="G49" s="22" t="n"/>
+    <row r="49" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
     </row>
-    <row r="50" customFormat="1" s="1">
-      <c r="F50" s="22" t="n"/>
-      <c r="G50" s="22" t="n"/>
+    <row r="50" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
     </row>
-    <row r="51" customFormat="1" s="1">
-      <c r="F51" s="22" t="n"/>
-      <c r="G51" s="22" t="n"/>
+    <row r="51" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
     </row>
-    <row r="52" customFormat="1" s="1">
-      <c r="F52" s="22" t="n"/>
-      <c r="G52" s="22" t="n"/>
+    <row r="52" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
     </row>
-    <row r="53" customFormat="1" s="1">
-      <c r="F53" s="22" t="n"/>
-      <c r="G53" s="22" t="n"/>
+    <row r="53" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
     </row>
-    <row r="54" customFormat="1" s="1">
-      <c r="F54" s="22" t="n"/>
-      <c r="G54" s="22" t="n"/>
+    <row r="54" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
     </row>
-    <row r="55" customFormat="1" s="1">
-      <c r="F55" s="22" t="n"/>
-      <c r="G55" s="22" t="n"/>
+    <row r="55" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
     </row>
-    <row r="56" customFormat="1" s="1">
-      <c r="F56" s="22" t="n"/>
-      <c r="G56" s="22" t="n"/>
+    <row r="56" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
     </row>
-    <row r="57" customFormat="1" s="1">
-      <c r="F57" s="22" t="n"/>
-      <c r="G57" s="22" t="n"/>
+    <row r="57" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
     </row>
-    <row r="58" customFormat="1" s="1">
-      <c r="F58" s="22" t="n"/>
-      <c r="G58" s="22" t="n"/>
+    <row r="58" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
     </row>
-    <row r="59" customFormat="1" s="1">
-      <c r="F59" s="22" t="n"/>
-      <c r="G59" s="22" t="n"/>
+    <row r="59" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
     </row>
-    <row r="60" customFormat="1" s="1">
-      <c r="F60" s="22" t="n"/>
-      <c r="G60" s="22" t="n"/>
+    <row r="60" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
     </row>
-    <row r="61" customFormat="1" s="1">
-      <c r="F61" s="22" t="n"/>
-      <c r="G61" s="22" t="n"/>
+    <row r="61" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
     </row>
-    <row r="62" customFormat="1" s="1">
-      <c r="F62" s="22" t="n"/>
-      <c r="G62" s="22" t="n"/>
+    <row r="62" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
     </row>
-    <row r="63" customFormat="1" s="1">
-      <c r="F63" s="22" t="n"/>
-      <c r="G63" s="22" t="n"/>
+    <row r="63" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
     </row>
-    <row r="64" customFormat="1" s="1">
-      <c r="F64" s="22" t="n"/>
-      <c r="G64" s="22" t="n"/>
+    <row r="64" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
     </row>
-    <row r="65" customFormat="1" s="1">
-      <c r="F65" s="22" t="n"/>
-      <c r="G65" s="22" t="n"/>
+    <row r="65" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
     </row>
-    <row r="66" customFormat="1" s="1">
-      <c r="F66" s="22" t="n"/>
-      <c r="G66" s="22" t="n"/>
+    <row r="66" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
     </row>
-    <row r="67" customFormat="1" s="1">
-      <c r="F67" s="22" t="n"/>
-      <c r="G67" s="22" t="n"/>
+    <row r="67" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
     </row>
-    <row r="68" customFormat="1" s="1">
-      <c r="F68" s="22" t="n"/>
-      <c r="G68" s="22" t="n"/>
+    <row r="68" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
     </row>
-    <row r="69" customFormat="1" s="1">
-      <c r="F69" s="22" t="n"/>
-      <c r="G69" s="22" t="n"/>
+    <row r="69" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
     </row>
-    <row r="70" customFormat="1" s="1">
-      <c r="F70" s="22" t="n"/>
-      <c r="G70" s="22" t="n"/>
+    <row r="70" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
     </row>
-    <row r="71" customFormat="1" s="1">
-      <c r="F71" s="22" t="n"/>
-      <c r="G71" s="22" t="n"/>
+    <row r="71" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
     </row>
-    <row r="72" customFormat="1" s="1">
-      <c r="F72" s="22" t="n"/>
-      <c r="G72" s="22" t="n"/>
+    <row r="72" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
     </row>
-    <row r="73" customFormat="1" s="1">
-      <c r="F73" s="22" t="n"/>
-      <c r="G73" s="22" t="n"/>
+    <row r="73" spans="6:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>